--- a/matrimonytask.com/Excel/Matrimony.xlsx
+++ b/matrimonytask.com/Excel/Matrimony.xlsx
@@ -1,48 +1,444 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\OneDrive\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="19890" windowHeight="7665"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="spoken" sheetId="1" r:id="rId1"/>
+    <sheet name="aravind" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="19">
+  <si>
+    <t>Shirt List</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>ARAVIND KUMAR</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>Unmarried</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>6 feet</t>
+  </si>
+  <si>
+    <t>69 kg</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>manoj</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>Widow / Widower</t>
+  </si>
+  <si>
+    <t>4 feet</t>
+  </si>
+  <si>
+    <t>49 kg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,31 +446,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -116,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,23 +1011,2801 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AF21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/matrimonytask.com/Excel/Matrimony.xlsx
+++ b/matrimonytask.com/Excel/Matrimony.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="224">
   <si>
     <t>Profile created by *</t>
   </si>
@@ -682,6 +682,18 @@
   </si>
   <si>
     <t>Executive, Clerk</t>
+  </si>
+  <si>
+    <t>Unmarried, Separated</t>
+  </si>
+  <si>
+    <t>Regular smoker</t>
+  </si>
+  <si>
+    <t>Software Professional</t>
+  </si>
+  <si>
+    <t>Light / Social smoker, Regular smoker</t>
   </si>
 </sst>
 </file>
@@ -2280,10 +2292,10 @@
         <v>148</v>
       </c>
       <c r="CO2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="CP2" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="CQ2" t="s">
         <v>216</v>
@@ -2301,10 +2313,10 @@
         <v>205</v>
       </c>
       <c r="CV2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="CW2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="CX2" t="s">
         <v>153</v>
@@ -2313,10 +2325,10 @@
         <v>159</v>
       </c>
       <c r="CZ2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="DA2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="DB2" t="s">
         <v>157</v>
@@ -2609,10 +2621,10 @@
         <v>148</v>
       </c>
       <c r="CO3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="CP3" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="CQ3" t="s">
         <v>202</v>
@@ -2630,10 +2642,10 @@
         <v>151</v>
       </c>
       <c r="CV3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="CW3" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="CX3" t="s">
         <v>206</v>
